--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>Field</t>
   </si>
@@ -31,6 +31,27 @@
     <t>ReferralText</t>
   </si>
   <si>
+    <t>FirstNameErrorText</t>
+  </si>
+  <si>
+    <t>LastNameErrorText</t>
+  </si>
+  <si>
+    <t>EmailIDErrorText</t>
+  </si>
+  <si>
+    <t>PhoneNumberErrorText</t>
+  </si>
+  <si>
+    <t>PasswordErrorText</t>
+  </si>
+  <si>
+    <t>PasswordHint</t>
+  </si>
+  <si>
+    <t>RepeatPasswordErrorText</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -43,9 +64,42 @@
     <t>Lastname</t>
   </si>
   <si>
+    <t>InvalidPhoneNumber</t>
+  </si>
+  <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>InvalidRepeatPassword</t>
+  </si>
+  <si>
     <t>Phone number</t>
   </si>
   <si>
+    <t>EmployerNameErrorText</t>
+  </si>
+  <si>
+    <t>DOBErrorText</t>
+  </si>
+  <si>
+    <t>RefferalErrorText</t>
+  </si>
+  <si>
+    <t>InvalidDOBbelow18</t>
+  </si>
+  <si>
+    <t>InvalidDOB</t>
+  </si>
+  <si>
+    <t>InvalidOTPError</t>
+  </si>
+  <si>
+    <t>InvalidOTP</t>
+  </si>
+  <si>
+    <t>PinMustBe6DigitText</t>
+  </si>
+  <si>
     <t>Employer name</t>
   </si>
   <si>
@@ -85,12 +139,72 @@
     <t>Referral Source</t>
   </si>
   <si>
+    <t>Please enter first name,Please enter valid first name</t>
+  </si>
+  <si>
+    <t>Please enter last name,Please enter valid last name</t>
+  </si>
+  <si>
+    <t>Please enter Email ID,Please enter valid Email ID</t>
+  </si>
+  <si>
+    <t>Please enter cell phone number,Phone number must be at least 10 digits long</t>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>Invalid Password,Your password must include:,minimum 8 characters,at least one number,an uppercase letter,a lowercase letter,at least one special character like !@#$</t>
+  </si>
+  <si>
+    <t>Password do not match</t>
+  </si>
+  <si>
+    <t>adsd@mailinator</t>
+  </si>
+  <si>
     <t>Prabha@123</t>
   </si>
   <si>
+    <t>dfgh12</t>
+  </si>
+  <si>
+    <t>jkhhj123</t>
+  </si>
+  <si>
+    <t>Prabha</t>
+  </si>
+  <si>
+    <t>prabha123</t>
+  </si>
+  <si>
     <t>2505551234</t>
   </si>
   <si>
+    <t>Please enter employer name</t>
+  </si>
+  <si>
+    <t>Please enter date of birth,Should be 18 years old to register,Please enter valid date</t>
+  </si>
+  <si>
+    <t>Please choose any referral source</t>
+  </si>
+  <si>
+    <t>12032010</t>
+  </si>
+  <si>
+    <t>12031894</t>
+  </si>
+  <si>
+    <t>Invalid verification code provided, please try again.,Please enter the valid code</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>Pin must be 6 digit long</t>
+  </si>
+  <si>
     <t>tester</t>
   </si>
   <si>
@@ -118,13 +232,13 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabharFOj3041@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhanIKP</t>
-  </si>
-  <si>
-    <t>automationqwzf</t>
+    <t>prabhaIOLm8821@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaYKHH</t>
+  </si>
+  <si>
+    <t>automationefmn</t>
   </si>
   <si>
     <t>Testdata2</t>
@@ -199,34 +313,28 @@
     <t>automationaqtf</t>
   </si>
   <si>
-    <t>FirstNameErrorText</t>
-  </si>
-  <si>
-    <t>Please enter first name</t>
-  </si>
-  <si>
-    <t>Please enter last name</t>
-  </si>
-  <si>
-    <t>Please enter Email ID</t>
-  </si>
-  <si>
-    <t>Please enter cell phone number</t>
-  </si>
-  <si>
-    <t>Password cannot be empty</t>
-  </si>
-  <si>
-    <t>LastNameErrorText</t>
-  </si>
-  <si>
-    <t>EmailIDErrorText</t>
-  </si>
-  <si>
-    <t>PhoneNumberErrorText</t>
-  </si>
-  <si>
-    <t>PasswordErrorText</t>
+    <t>ProgramNotToDisplay</t>
+  </si>
+  <si>
+    <t>Mental Health,Cancer,Chronic Disease,Elder Care</t>
+  </si>
+  <si>
+    <t>ProgramToDisplay</t>
+  </si>
+  <si>
+    <t>Cancer,Chronic Disease,Elder Care</t>
+  </si>
+  <si>
+    <t>StudentIDErrorText</t>
+  </si>
+  <si>
+    <t>Please enter Student ID</t>
+  </si>
+  <si>
+    <t>Please enter current enrolled course name</t>
+  </si>
+  <si>
+    <t>CourseEnrolledErrorText</t>
   </si>
 </sst>
 </file>
@@ -605,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,26 +726,30 @@
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="6" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="32.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" customWidth="1"/>
+    <col min="21" max="32" width="25.7109375" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,138 +766,236 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AB2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AL2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AM2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AN2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -798,19 +1008,19 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="P3" s="5" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -820,22 +1030,34 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
     </row>
-    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -844,46 +1066,58 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -896,19 +1130,19 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="O5" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="P5" s="5" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -918,22 +1152,34 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -942,46 +1188,58 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -994,19 +1252,19 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="P7" s="5" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1016,22 +1274,34 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
     </row>
-    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1040,46 +1310,58 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1092,19 +1374,19 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="O9" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="P9" s="5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -1114,22 +1396,34 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1138,46 +1432,58 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1190,19 +1496,19 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="P11" s="5" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -1212,14 +1518,26 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN10 AN8 AN6 AN4 AN2">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B8 B6 B4 B2">
       <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB10 AB8 AB6 AB4 AB2">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_02" sheetId="5" r:id="rId1"/>
+    <sheet sheetId="5" name="TC_02" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="111">
   <si>
     <t>Field</t>
   </si>
@@ -43,6 +43,9 @@
     <t>PhoneNumberErrorText</t>
   </si>
   <si>
+    <t>PhoneNumberErrorStudent</t>
+  </si>
+  <si>
     <t>PasswordErrorText</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>DOBErrorText</t>
   </si>
   <si>
+    <t>StudentDOBErrorText</t>
+  </si>
+  <si>
     <t>RefferalErrorText</t>
   </si>
   <si>
@@ -100,6 +106,18 @@
     <t>PinMustBe6DigitText</t>
   </si>
   <si>
+    <t>ProgramToDisplay</t>
+  </si>
+  <si>
+    <t>ProgramNotToDisplay</t>
+  </si>
+  <si>
+    <t>StudentIDErrorText</t>
+  </si>
+  <si>
+    <t>CourseEnrolledErrorText</t>
+  </si>
+  <si>
     <t>Employer name</t>
   </si>
   <si>
@@ -151,6 +169,9 @@
     <t>Please enter cell phone number,Phone number must be at least 10 digits long</t>
   </si>
   <si>
+    <t>Please enter valid cell phone number</t>
+  </si>
+  <si>
     <t>Password cannot be empty</t>
   </si>
   <si>
@@ -187,6 +208,9 @@
     <t>Please enter date of birth,Should be 18 years old to register,Please enter valid date</t>
   </si>
   <si>
+    <t>Users need to be at least 14 years of age to access this program.</t>
+  </si>
+  <si>
     <t>Please choose any referral source</t>
   </si>
   <si>
@@ -196,7 +220,7 @@
     <t>12031894</t>
   </si>
   <si>
-    <t>Invalid verification code provided, please try again.,Please enter the valid code</t>
+    <t>Invalid verification code provided, please try again.;Please enter the valid code</t>
   </si>
   <si>
     <t>111111</t>
@@ -205,6 +229,18 @@
     <t>Pin must be 6 digit long</t>
   </si>
   <si>
+    <t>Mental Health,Cancer,Chronic Disease,Elder Care</t>
+  </si>
+  <si>
+    <t>Cancer,Chronic Disease,Elder Care</t>
+  </si>
+  <si>
+    <t>Please enter Student ID</t>
+  </si>
+  <si>
+    <t>Please enter current enrolled course name</t>
+  </si>
+  <si>
     <t>tester</t>
   </si>
   <si>
@@ -232,13 +268,13 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabhaIOLm8821@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaYKHH</t>
-  </si>
-  <si>
-    <t>automationefmn</t>
+    <t>prabhaXFbc1704@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaaDoP</t>
+  </si>
+  <si>
+    <t>automationcynh</t>
   </si>
   <si>
     <t>Testdata2</t>
@@ -250,13 +286,13 @@
     <t>Writedata2</t>
   </si>
   <si>
-    <t>prabhaUCmP4821@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhapAge</t>
-  </si>
-  <si>
-    <t>automationrbuh</t>
+    <t>prabhaOhLL6978@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhasASx</t>
+  </si>
+  <si>
+    <t>automationpacz</t>
   </si>
   <si>
     <t>Testdata3</t>
@@ -311,30 +347,6 @@
   </si>
   <si>
     <t>automationaqtf</t>
-  </si>
-  <si>
-    <t>ProgramNotToDisplay</t>
-  </si>
-  <si>
-    <t>Mental Health,Cancer,Chronic Disease,Elder Care</t>
-  </si>
-  <si>
-    <t>ProgramToDisplay</t>
-  </si>
-  <si>
-    <t>Cancer,Chronic Disease,Elder Care</t>
-  </si>
-  <si>
-    <t>StudentIDErrorText</t>
-  </si>
-  <si>
-    <t>Please enter Student ID</t>
-  </si>
-  <si>
-    <t>Please enter current enrolled course name</t>
-  </si>
-  <si>
-    <t>CourseEnrolledErrorText</t>
   </si>
 </sst>
 </file>
@@ -343,34 +355,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -382,13 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,15 +723,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -727,29 +739,29 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="10" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
-    <col min="13" max="13" width="32.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="32" width="25.7109375" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" customWidth="1"/>
-    <col min="34" max="34" width="9.5703125" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" customWidth="1"/>
-    <col min="36" max="36" width="12.85546875" customWidth="1"/>
-    <col min="37" max="37" width="10" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" customWidth="1"/>
-    <col min="39" max="39" width="15.140625" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" customWidth="1"/>
+    <col min="9" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="34" width="25.7109375" customWidth="1"/>
+    <col min="35" max="35" width="16.42578125" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" customWidth="1"/>
+    <col min="37" max="37" width="8.7109375" customWidth="1"/>
+    <col min="38" max="38" width="12.85546875" customWidth="1"/>
+    <col min="39" max="39" width="10" customWidth="1"/>
+    <col min="40" max="40" width="9.7109375" customWidth="1"/>
+    <col min="41" max="41" width="15.140625" customWidth="1"/>
+    <col min="42" max="42" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,10 +798,10 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -835,167 +847,179 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="4">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="4">
         <v>25055512</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="S2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1008,17 +1032,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="5"/>
       <c r="P3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -1042,82 +1066,140 @@
       <c r="AL3" s="5"/>
       <c r="AM3" s="5"/>
       <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
     </row>
-    <row r="4" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>12032020</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="AK4" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1130,17 +1212,17 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -1164,82 +1246,140 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
     </row>
-    <row r="6" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>82</v>
+      <c r="AP6" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1252,17 +1392,17 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -1286,82 +1426,140 @@
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
     </row>
-    <row r="8" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="5" t="s">
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AH8" s="5" t="s">
+      <c r="X8" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="Y8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="AI8" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1374,17 +1572,17 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -1408,82 +1606,140 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
     </row>
-    <row r="10" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="4" t="s">
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="5" t="s">
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AH10" s="5" t="s">
+      <c r="X10" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="Y10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="AI10" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1496,17 +1752,17 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -1530,17 +1786,43 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN10 AN8 AN6 AN4 AN2">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP10">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B8 B6 B4 B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP8">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="5" name="TC_02" state="visible" r:id="rId4"/>
+    <sheet name="TC_02" sheetId="5" r:id="rId1"/>
+    <sheet name="TC_03" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="111">
   <si>
     <t>Field</t>
   </si>
@@ -355,34 +356,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -394,13 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -445,6 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,15 +725,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -761,7 +763,7 @@
     <col min="42" max="42" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -1069,7 +1071,7 @@
       <c r="AO3" s="5"/>
       <c r="AP3" s="5"/>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>89</v>
       </c>
@@ -1249,7 +1251,7 @@
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
     </row>
-    <row r="6" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
@@ -1377,7 +1379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -1429,7 +1431,7 @@
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
     </row>
-    <row r="8" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>105</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>107</v>
       </c>
@@ -1823,6 +1825,1096 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="39.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" customWidth="1"/>
+    <col min="31" max="31" width="23.7109375" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" customWidth="1"/>
+    <col min="34" max="34" width="20.5703125" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" customWidth="1"/>
+    <col min="37" max="37" width="13.28515625" customWidth="1"/>
+    <col min="38" max="38" width="20.7109375" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+    </row>
+    <row r="4" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>12032020</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+    </row>
+    <row r="6" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+    </row>
+    <row r="8" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+    </row>
+    <row r="10" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="4">
+        <v>25055512</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B6 B4 B2 B10">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP8 AP6 AP4 AP2 AP10">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_02" sheetId="5" r:id="rId1"/>
-    <sheet name="TC_03" sheetId="6" r:id="rId2"/>
+    <sheet sheetId="5" name="TC_02" state="visible" r:id="rId4"/>
+    <sheet sheetId="6" name="TC_03" state="visible" r:id="rId5"/>
+    <sheet sheetId="7" name="Sheet1" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="135">
   <si>
     <t>Field</t>
   </si>
@@ -158,6 +159,180 @@
     <t>Referral Source</t>
   </si>
   <si>
+    <t>Please enter first name;Please enter valid first name</t>
+  </si>
+  <si>
+    <t>Please enter last name;Please enter valid last name</t>
+  </si>
+  <si>
+    <t>Please enter Email ID;Please enter valid Email ID</t>
+  </si>
+  <si>
+    <t>Please enter cell phone number;Phone number must be at least 10 digits long</t>
+  </si>
+  <si>
+    <t>Please enter valid cell phone number</t>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>Invalid Password;Your password must include:;minimum 8 characters;at least one number;an uppercase letter;a lowercase letter;at least one special character like !@#$</t>
+  </si>
+  <si>
+    <t>Password do not match</t>
+  </si>
+  <si>
+    <t>adsd@mailinator</t>
+  </si>
+  <si>
+    <t>Prabha@123</t>
+  </si>
+  <si>
+    <t>2505551234</t>
+  </si>
+  <si>
+    <t>Please enter employer name</t>
+  </si>
+  <si>
+    <t>Please enter date of birth,Should be 18 years old to register,Please enter valid date</t>
+  </si>
+  <si>
+    <t>Users need to be at least 14 years of age to access this program.</t>
+  </si>
+  <si>
+    <t>Please choose any referral source</t>
+  </si>
+  <si>
+    <t>12032010</t>
+  </si>
+  <si>
+    <t>12031894</t>
+  </si>
+  <si>
+    <t>Invalid verification code provided, please try again.;Please enter the valid code</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>Pin must be 6 digit long</t>
+  </si>
+  <si>
+    <t>Mental Health,Cancer,Chronic Disease,Elder Care</t>
+  </si>
+  <si>
+    <t>Cancer,Chronic Disease,Elder Care</t>
+  </si>
+  <si>
+    <t>Please enter Student ID</t>
+  </si>
+  <si>
+    <t>Please enter current enrolled course name</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>29032000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>1276898</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Writedata1</t>
+  </si>
+  <si>
+    <t>prabhadwJl8392@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhapkQA</t>
+  </si>
+  <si>
+    <t>automationzbft</t>
+  </si>
+  <si>
+    <t>Testdata2</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty </t>
+  </si>
+  <si>
+    <t>Prabha</t>
+  </si>
+  <si>
+    <t>Writedata2</t>
+  </si>
+  <si>
+    <t>prabhaOhLL6978@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhasASx</t>
+  </si>
+  <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Writedata3</t>
+  </si>
+  <si>
+    <t>prabhajiEl1713@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhazOkC</t>
+  </si>
+  <si>
+    <t>Testdata4</t>
+  </si>
+  <si>
+    <t>Chronic Disease</t>
+  </si>
+  <si>
+    <t>Writedata4</t>
+  </si>
+  <si>
+    <t>prabhaOGbu1814@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabhangas</t>
+  </si>
+  <si>
+    <t>Testdata5</t>
+  </si>
+  <si>
+    <t>Elder Care</t>
+  </si>
+  <si>
+    <t>Writedata5</t>
+  </si>
+  <si>
+    <t>prabhaIAwv2275@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaCvob</t>
+  </si>
+  <si>
     <t>Please enter first name,Please enter valid first name</t>
   </si>
   <si>
@@ -170,223 +345,134 @@
     <t>Please enter cell phone number,Phone number must be at least 10 digits long</t>
   </si>
   <si>
-    <t>Please enter valid cell phone number</t>
-  </si>
-  <si>
-    <t>Password cannot be empty</t>
-  </si>
-  <si>
     <t>Invalid Password,Your password must include:,minimum 8 characters,at least one number,an uppercase letter,a lowercase letter,at least one special character like !@#$</t>
   </si>
   <si>
-    <t>Password do not match</t>
-  </si>
-  <si>
-    <t>adsd@mailinator</t>
-  </si>
-  <si>
-    <t>Prabha@123</t>
-  </si>
-  <si>
     <t>dfgh12</t>
   </si>
   <si>
     <t>jkhhj123</t>
   </si>
   <si>
-    <t>Prabha</t>
-  </si>
-  <si>
     <t>prabha123</t>
   </si>
   <si>
-    <t>2505551234</t>
-  </si>
-  <si>
-    <t>Please enter employer name</t>
-  </si>
-  <si>
-    <t>Please enter date of birth,Should be 18 years old to register,Please enter valid date</t>
-  </si>
-  <si>
-    <t>Users need to be at least 14 years of age to access this program.</t>
-  </si>
-  <si>
-    <t>Please choose any referral source</t>
-  </si>
-  <si>
-    <t>12032010</t>
-  </si>
-  <si>
-    <t>12031894</t>
-  </si>
-  <si>
-    <t>Invalid verification code provided, please try again.;Please enter the valid code</t>
-  </si>
-  <si>
-    <t>111111</t>
-  </si>
-  <si>
-    <t>Pin must be 6 digit long</t>
-  </si>
-  <si>
-    <t>Mental Health,Cancer,Chronic Disease,Elder Care</t>
-  </si>
-  <si>
-    <t>Cancer,Chronic Disease,Elder Care</t>
-  </si>
-  <si>
-    <t>Please enter Student ID</t>
-  </si>
-  <si>
-    <t>Please enter current enrolled course name</t>
-  </si>
-  <si>
-    <t>tester</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>29032000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>1276898</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
-    <t>Writedata1</t>
-  </si>
-  <si>
-    <t>prabhaXFbc1704@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaaDoP</t>
-  </si>
-  <si>
-    <t>automationcynh</t>
-  </si>
-  <si>
-    <t>Testdata2</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Writedata2</t>
-  </si>
-  <si>
-    <t>prabhaOhLL6978@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhasASx</t>
+    <t>prabhavlNT4026@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaYziE</t>
+  </si>
+  <si>
+    <t>automationoxqw</t>
   </si>
   <si>
     <t>automationpacz</t>
   </si>
   <si>
-    <t>Testdata3</t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t>Writedata3</t>
-  </si>
-  <si>
-    <t>prabhajiEl1713@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhazOkC</t>
-  </si>
-  <si>
     <t>automationdqup</t>
   </si>
   <si>
-    <t>Testdata4</t>
-  </si>
-  <si>
-    <t>Chronic Disease</t>
-  </si>
-  <si>
-    <t>Writedata4</t>
-  </si>
-  <si>
-    <t>prabhaOGbu1814@mailinator.com</t>
-  </si>
-  <si>
-    <t>Prabhangas</t>
-  </si>
-  <si>
     <t>automationzowz</t>
   </si>
   <si>
-    <t>Testdata5</t>
-  </si>
-  <si>
-    <t>Elder Care</t>
-  </si>
-  <si>
-    <t>Writedata5</t>
-  </si>
-  <si>
-    <t>prabhaIAwv2275@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaCvob</t>
-  </si>
-  <si>
     <t>automationaqtf</t>
+  </si>
+  <si>
+    <t>Empty Sapce</t>
+  </si>
+  <si>
+    <t>onlynumber</t>
+  </si>
+  <si>
+    <t>SpecialChar</t>
+  </si>
+  <si>
+    <t>alpha$numaric</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>addoneNumber</t>
+  </si>
+  <si>
+    <t>addoneSpeciaChar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>!@#$%^^&amp;</t>
+  </si>
+  <si>
+    <t>LASR34@</t>
+  </si>
+  <si>
+    <t>demo1</t>
+  </si>
+  <si>
+    <t>demo@</t>
+  </si>
+  <si>
+    <t>Please enter first name</t>
+  </si>
+  <si>
+    <t>Please enter valid first name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <sz val="14"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,13 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -443,10 +535,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,15 +825,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -747,11 +847,11 @@
     <col min="14" max="14" width="32.140625" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
     <col min="18" max="18" width="22.28515625" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="24.140625" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" customWidth="1"/>
     <col min="22" max="34" width="25.7109375" customWidth="1"/>
     <col min="35" max="35" width="16.42578125" customWidth="1"/>
     <col min="36" max="36" width="9.5703125" customWidth="1"/>
@@ -763,7 +863,7 @@
     <col min="42" max="42" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -931,152 +1031,152 @@
       <c r="M2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1234563</v>
+      </c>
+      <c r="T2" s="6">
+        <v>1234563</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="4">
-        <v>25055512</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AI2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AK2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AL2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AM2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AN2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AO2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AP2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="5" t="s">
+    </row>
+    <row r="3" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
     </row>
-    <row r="3" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-    </row>
-    <row r="4" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>44</v>
@@ -1111,149 +1211,147 @@
       <c r="M4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>58</v>
+      <c r="P4" s="6">
+        <v>123456</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="R4" s="4">
         <v>25055512</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1234563</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="Z4" s="4">
         <v>12032020</v>
       </c>
       <c r="AA4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AI4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AK4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AL4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AM4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AN4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AO4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AP4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="5" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+    </row>
+    <row r="6" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-    </row>
-    <row r="6" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
@@ -1291,149 +1389,147 @@
       <c r="M6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>58</v>
+      <c r="P6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="R6" s="4">
         <v>25055512</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1234563</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="X6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AI6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AK6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AL6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AM6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ6" s="5" t="s">
+      <c r="AN6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AO6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AP6" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
     </row>
-    <row r="7" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-    </row>
-    <row r="8" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -1471,149 +1567,147 @@
       <c r="M8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>58</v>
+      <c r="P8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="R8" s="4">
         <v>25055512</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1234563</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="X8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AF8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AG8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AI8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AK8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AL8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI8" s="5" t="s">
+      <c r="AM8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ8" s="5" t="s">
+      <c r="AN8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK8" s="5" t="s">
+      <c r="AO8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP8" s="5" t="s">
+      <c r="AP8" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-    </row>
-    <row r="10" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -1651,148 +1745,146 @@
       <c r="M10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>58</v>
+      <c r="P10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="R10" s="4">
         <v>25055512</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1234563</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="X10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AI10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AJ10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AK10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AL10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI10" s="5" t="s">
+      <c r="AM10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ10" s="5" t="s">
+      <c r="AN10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK10" s="5" t="s">
+      <c r="AO10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP10" s="5" t="s">
-        <v>106</v>
+      <c r="AP10" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="25">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP10">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
@@ -1823,21 +1915,66 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:Q10">
+      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q2">
+      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4">
+      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:Q6">
+      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8:Q8">
+      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10">
+      <formula1>"25055512,2,25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+      <formula1>"25055512,2,25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4">
+      <formula1>"25055512,2,25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6">
+      <formula1>"25055512,2,25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8">
+      <formula1>"25055512,2,25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10:T10">
+      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:T2">
+      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:T4">
+      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6:T6">
+      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8:T8">
+      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -1878,7 +2015,7 @@
     <col min="39" max="39" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -2023,16 +2160,16 @@
         <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>51</v>
@@ -2041,102 +2178,102 @@
         <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>58</v>
+      <c r="P2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="R2" s="4">
         <v>25055512</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AI2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AK2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AL2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AM2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AN2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AO2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AP2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="5" t="s">
+    </row>
+    <row r="3" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2150,19 +2287,19 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>86</v>
+      <c r="N3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="R3" s="4"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
@@ -2177,21 +2314,21 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
     </row>
-    <row r="4" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>44</v>
@@ -2203,16 +2340,16 @@
         <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>51</v>
@@ -2221,102 +2358,102 @@
         <v>52</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>58</v>
+      <c r="P4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="R4" s="4">
         <v>25055512</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="Z4" s="4">
         <v>12032020</v>
       </c>
       <c r="AA4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AI4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AK4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AL4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AM4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AN4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AO4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AP4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="5" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2330,19 +2467,19 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>92</v>
+      <c r="N5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -2357,18 +2494,18 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
     </row>
-    <row r="6" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
@@ -2383,16 +2520,16 @@
         <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>51</v>
@@ -2401,102 +2538,102 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>58</v>
+      <c r="P6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="R6" s="4">
         <v>25055512</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="X6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AI6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AK6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AL6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AM6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ6" s="5" t="s">
+      <c r="AN6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AO6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>94</v>
+      <c r="AP6" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2510,19 +2647,19 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>98</v>
+      <c r="N7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
@@ -2537,18 +2674,18 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
     </row>
-    <row r="8" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -2563,16 +2700,16 @@
         <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>51</v>
@@ -2581,102 +2718,102 @@
         <v>52</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>58</v>
+      <c r="P8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="R8" s="4">
         <v>25055512</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="X8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AF8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AG8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AI8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AK8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AL8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI8" s="5" t="s">
+      <c r="AM8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ8" s="5" t="s">
+      <c r="AN8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK8" s="5" t="s">
+      <c r="AO8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>100</v>
+      <c r="AP8" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2690,19 +2827,19 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>104</v>
+      <c r="N9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -2717,18 +2854,18 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
     </row>
-    <row r="10" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -2743,16 +2880,16 @@
         <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>51</v>
@@ -2761,102 +2898,102 @@
         <v>52</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>58</v>
+      <c r="P10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="R10" s="4">
         <v>25055512</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="X10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AI10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AJ10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AK10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AL10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI10" s="5" t="s">
+      <c r="AM10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ10" s="5" t="s">
+      <c r="AN10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK10" s="5" t="s">
+      <c r="AO10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP10" s="5" t="s">
-        <v>106</v>
+      <c r="AP10" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2870,19 +3007,19 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>110</v>
+      <c r="N11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="R11" s="4"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -2897,24 +3034,140 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B6 B4 B2 B10">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP10">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP8">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP8 AP6 AP4 AP2 AP10">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>"Employee,Student"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
 </file>
--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="5" name="TC_02" state="visible" r:id="rId4"/>
-    <sheet sheetId="6" name="TC_03" state="visible" r:id="rId5"/>
-    <sheet sheetId="7" name="Sheet1" state="visible" r:id="rId6"/>
+    <sheet name="TC_02" sheetId="5" r:id="rId1"/>
+    <sheet name="TC_03" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="156">
   <si>
     <t>Field</t>
   </si>
@@ -189,6 +189,18 @@
     <t>Prabha@123</t>
   </si>
   <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>25055512</t>
+  </si>
+  <si>
+    <t>@#$^%&amp;&amp;</t>
+  </si>
+  <si>
+    <t>1234563</t>
+  </si>
+  <si>
     <t>2505551234</t>
   </si>
   <si>
@@ -258,13 +270,13 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabhadwJl8392@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhapkQA</t>
-  </si>
-  <si>
-    <t>automationzbft</t>
+    <t>prabhaqtgs4104@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaufuE</t>
+  </si>
+  <si>
+    <t>automationvbkm</t>
   </si>
   <si>
     <t>Testdata2</t>
@@ -273,13 +285,127 @@
     <t>Student</t>
   </si>
   <si>
-    <t xml:space="preserve">Empty </t>
+    <t>!@#$%^&amp;</t>
+  </si>
+  <si>
+    <t>DEMTESTIONG</t>
+  </si>
+  <si>
+    <t>Writedata2</t>
+  </si>
+  <si>
+    <t>prabhaSMpL1866@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaFxHI</t>
+  </si>
+  <si>
+    <t>automationtzvv</t>
+  </si>
+  <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456 </t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Writedata3</t>
+  </si>
+  <si>
+    <t>prabhaYmTw8787@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaGhwD</t>
+  </si>
+  <si>
+    <t>automationfuer</t>
+  </si>
+  <si>
+    <t>Testdata4</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>test@</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>testval</t>
+  </si>
+  <si>
+    <t>Chronic Disease</t>
+  </si>
+  <si>
+    <t>Writedata4</t>
+  </si>
+  <si>
+    <t>prabhasuQZ2549@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhabakW</t>
+  </si>
+  <si>
+    <t>automationtmeh</t>
+  </si>
+  <si>
+    <t>Testdata5</t>
+  </si>
+  <si>
+    <t>Elder Care</t>
+  </si>
+  <si>
+    <t>Writedata5</t>
+  </si>
+  <si>
+    <t>prabhaeaEu6457@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhahRVt</t>
+  </si>
+  <si>
+    <t>automationjejk</t>
+  </si>
+  <si>
+    <t>Please enter first name,Please enter valid first name</t>
+  </si>
+  <si>
+    <t>Please enter last name,Please enter valid last name</t>
+  </si>
+  <si>
+    <t>Please enter Email ID,Please enter valid Email ID</t>
+  </si>
+  <si>
+    <t>Please enter cell phone number,Phone number must be at least 10 digits long</t>
+  </si>
+  <si>
+    <t>Invalid Password,Your password must include:,minimum 8 characters,at least one number,an uppercase letter,a lowercase letter,at least one special character like !@#$</t>
+  </si>
+  <si>
+    <t>dfgh12</t>
+  </si>
+  <si>
+    <t>jkhhj123</t>
   </si>
   <si>
     <t>Prabha</t>
   </si>
   <si>
-    <t>Writedata2</t>
+    <t>prabha123</t>
+  </si>
+  <si>
+    <t>prabhavlNT4026@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaYziE</t>
+  </si>
+  <si>
+    <t>automationoxqw</t>
   </si>
   <si>
     <t>prabhaOhLL6978@mailinator.com</t>
@@ -288,13 +414,7 @@
     <t>PrabhasASx</t>
   </si>
   <si>
-    <t>Testdata3</t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t>Writedata3</t>
+    <t>automationpacz</t>
   </si>
   <si>
     <t>prabhajiEl1713@mailinator.com</t>
@@ -303,13 +423,7 @@
     <t>PrabhazOkC</t>
   </si>
   <si>
-    <t>Testdata4</t>
-  </si>
-  <si>
-    <t>Chronic Disease</t>
-  </si>
-  <si>
-    <t>Writedata4</t>
+    <t>automationdqup</t>
   </si>
   <si>
     <t>prabhaOGbu1814@mailinator.com</t>
@@ -318,13 +432,7 @@
     <t>Prabhangas</t>
   </si>
   <si>
-    <t>Testdata5</t>
-  </si>
-  <si>
-    <t>Elder Care</t>
-  </si>
-  <si>
-    <t>Writedata5</t>
+    <t>automationzowz</t>
   </si>
   <si>
     <t>prabhaIAwv2275@mailinator.com</t>
@@ -333,48 +441,6 @@
     <t>PrabhaCvob</t>
   </si>
   <si>
-    <t>Please enter first name,Please enter valid first name</t>
-  </si>
-  <si>
-    <t>Please enter last name,Please enter valid last name</t>
-  </si>
-  <si>
-    <t>Please enter Email ID,Please enter valid Email ID</t>
-  </si>
-  <si>
-    <t>Please enter cell phone number,Phone number must be at least 10 digits long</t>
-  </si>
-  <si>
-    <t>Invalid Password,Your password must include:,minimum 8 characters,at least one number,an uppercase letter,a lowercase letter,at least one special character like !@#$</t>
-  </si>
-  <si>
-    <t>dfgh12</t>
-  </si>
-  <si>
-    <t>jkhhj123</t>
-  </si>
-  <si>
-    <t>prabha123</t>
-  </si>
-  <si>
-    <t>prabhavlNT4026@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaYziE</t>
-  </si>
-  <si>
-    <t>automationoxqw</t>
-  </si>
-  <si>
-    <t>automationpacz</t>
-  </si>
-  <si>
-    <t>automationdqup</t>
-  </si>
-  <si>
-    <t>automationzowz</t>
-  </si>
-  <si>
     <t>automationaqtf</t>
   </si>
   <si>
@@ -388,9 +454,6 @@
   </si>
   <si>
     <t>alpha$numaric</t>
-  </si>
-  <si>
-    <t>Empty</t>
   </si>
   <si>
     <t>addoneNumber</t>
@@ -429,47 +492,47 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <sz val="14"/>
-      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="5">
@@ -481,13 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,15 +888,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -863,7 +926,7 @@
     <col min="42" max="42" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1037,93 +1100,93 @@
       <c r="O2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="6">
-        <v>123456</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>123456</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2</v>
-      </c>
-      <c r="S2" s="6">
-        <v>1234563</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1234563</v>
+      <c r="P2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1136,14 +1199,14 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1171,12 +1234,12 @@
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>44</v>
@@ -1217,91 +1280,91 @@
       <c r="O4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="6">
-        <v>123456</v>
+      <c r="P4" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="4">
-        <v>25055512</v>
+        <v>89</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1234563</v>
+        <v>90</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z4" s="4">
         <v>12032020</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1316,13 +1379,15 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -1349,9 +1414,9 @@
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
     </row>
-    <row r="6" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
@@ -1396,90 +1461,90 @@
         <v>56</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="4">
-        <v>25055512</v>
+        <v>96</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1234563</v>
+        <v>59</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM6" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN6" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1494,13 +1559,15 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -1527,9 +1594,9 @@
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
     </row>
-    <row r="8" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -1568,96 +1635,96 @@
         <v>54</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="4">
-        <v>25055512</v>
+        <v>104</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1234563</v>
+        <v>106</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL8" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM8" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN8" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO8" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP8" s="6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1672,13 +1739,15 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -1705,9 +1774,9 @@
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -1752,90 +1821,90 @@
         <v>56</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="4">
-        <v>25055512</v>
+        <v>96</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="6">
-        <v>1234563</v>
+        <v>90</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL10" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN10" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO10" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP10" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1850,13 +1919,15 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q11" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -1884,7 +1955,7 @@
       <c r="AP11" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="25">
+  <dataValidations count="30">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP10">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
@@ -1903,10 +1974,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
@@ -1915,66 +1983,84 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:Q10">
-      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q2">
-      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4">
-      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:Q6">
-      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8:Q8">
-      <formula1>"Empty,123456 ,!@#$%^&amp;,test1,test@"</formula1>
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10">
-      <formula1>"25055512,2,25055512345,Empty"</formula1>
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
-      <formula1>"25055512,2,25055512345,Empty"</formula1>
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4">
-      <formula1>"25055512,2,25055512345,Empty"</formula1>
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6">
-      <formula1>"25055512,2,25055512345,Empty"</formula1>
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8">
-      <formula1>"25055512,2,25055512345,Empty"</formula1>
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10:T10">
-      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:T2">
-      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:T4">
-      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6:T6">
-      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8:T8">
-      <formula1>"1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6">
+      <formula1>"'1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -2015,7 +2101,7 @@
     <col min="39" max="39" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -2160,16 +2246,16 @@
         <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>51</v>
@@ -2178,7 +2264,7 @@
         <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>54</v>
@@ -2190,90 +2276,90 @@
         <v>56</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="R2" s="4">
         <v>25055512</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="3" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2288,14 +2374,14 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="6" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="6"/>
@@ -2323,12 +2409,12 @@
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
     </row>
-    <row r="4" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>44</v>
@@ -2340,16 +2426,16 @@
         <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>51</v>
@@ -2358,7 +2444,7 @@
         <v>52</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>54</v>
@@ -2370,90 +2456,90 @@
         <v>56</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="R4" s="4">
         <v>25055512</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z4" s="4">
         <v>12032020</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="5" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2468,14 +2554,14 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="5" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="6"/>
@@ -2503,9 +2589,9 @@
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
     </row>
-    <row r="6" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
@@ -2520,16 +2606,16 @@
         <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>51</v>
@@ -2538,7 +2624,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>54</v>
@@ -2550,90 +2636,90 @@
         <v>56</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="R6" s="4">
         <v>25055512</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM6" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN6" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="7" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2648,14 +2734,14 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="6" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="6"/>
@@ -2683,9 +2769,9 @@
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
     </row>
-    <row r="8" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -2700,16 +2786,16 @@
         <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>51</v>
@@ -2718,7 +2804,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>54</v>
@@ -2730,90 +2816,90 @@
         <v>56</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="R8" s="4">
         <v>25055512</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL8" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM8" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN8" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO8" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP8" s="6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="9" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2828,14 +2914,14 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="6"/>
@@ -2863,9 +2949,9 @@
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
     </row>
-    <row r="10" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -2880,16 +2966,16 @@
         <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>51</v>
@@ -2898,7 +2984,7 @@
         <v>52</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>54</v>
@@ -2910,90 +2996,90 @@
         <v>56</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="R10" s="4">
         <v>25055512</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL10" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AN10" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AO10" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP10" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="11" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3008,14 +3094,14 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="6" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="6"/>
@@ -3080,15 +3166,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
@@ -3099,75 +3185,75 @@
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="3" ht="40.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC_02" sheetId="5" r:id="rId1"/>
     <sheet name="TC_03" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="TC_04" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="194">
   <si>
     <t>Field</t>
   </si>
@@ -189,85 +189,193 @@
     <t>Prabha@123</t>
   </si>
   <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>testval</t>
+  </si>
+  <si>
+    <t>2505551234</t>
+  </si>
+  <si>
+    <t>Please enter employer name</t>
+  </si>
+  <si>
+    <t>Please enter date of birth,Should be 18 years old to register,Please enter valid date</t>
+  </si>
+  <si>
+    <t>Users need to be at least 14 years of age to access this program.</t>
+  </si>
+  <si>
+    <t>Please choose any referral source</t>
+  </si>
+  <si>
+    <t>12032010</t>
+  </si>
+  <si>
+    <t>12031894</t>
+  </si>
+  <si>
+    <t>Invalid verification code provided, please try again.;Please enter the valid code</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>Pin must be 6 digit long</t>
+  </si>
+  <si>
+    <t>Mental Health,Cancer,Chronic Disease,Elder Care</t>
+  </si>
+  <si>
+    <t>Cancer,Chronic Disease,Elder Care</t>
+  </si>
+  <si>
+    <t>Please enter Student ID</t>
+  </si>
+  <si>
+    <t>Please enter current enrolled course name</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>29032000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>1276898</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Writedata1</t>
+  </si>
+  <si>
+    <t>prabharJSN9502@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhafBav</t>
+  </si>
+  <si>
+    <t>automationmyya</t>
+  </si>
+  <si>
+    <t>Testdata2</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456 </t>
+  </si>
+  <si>
+    <t>25055512</t>
+  </si>
+  <si>
+    <t>1234563</t>
+  </si>
+  <si>
+    <t>Writedata2</t>
+  </si>
+  <si>
+    <t>prabhaHOeV5998@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaMJGk</t>
+  </si>
+  <si>
+    <t>automationgmgx</t>
+  </si>
+  <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>@#$^%&amp;&amp;</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Writedata3</t>
+  </si>
+  <si>
+    <t>prabhaYmTw8787@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaGhwD</t>
+  </si>
+  <si>
+    <t>automationfuer</t>
+  </si>
+  <si>
+    <t>Testdata4</t>
+  </si>
+  <si>
     <t>test1</t>
   </si>
   <si>
-    <t>25055512</t>
-  </si>
-  <si>
-    <t>@#$^%&amp;&amp;</t>
-  </si>
-  <si>
-    <t>1234563</t>
-  </si>
-  <si>
-    <t>2505551234</t>
-  </si>
-  <si>
-    <t>Please enter employer name</t>
-  </si>
-  <si>
-    <t>Please enter date of birth,Should be 18 years old to register,Please enter valid date</t>
-  </si>
-  <si>
-    <t>Users need to be at least 14 years of age to access this program.</t>
-  </si>
-  <si>
-    <t>Please choose any referral source</t>
-  </si>
-  <si>
-    <t>12032010</t>
-  </si>
-  <si>
-    <t>12031894</t>
-  </si>
-  <si>
-    <t>Invalid verification code provided, please try again.;Please enter the valid code</t>
-  </si>
-  <si>
-    <t>111111</t>
-  </si>
-  <si>
-    <t>Pin must be 6 digit long</t>
-  </si>
-  <si>
-    <t>Mental Health,Cancer,Chronic Disease,Elder Care</t>
-  </si>
-  <si>
-    <t>Cancer,Chronic Disease,Elder Care</t>
-  </si>
-  <si>
-    <t>Please enter Student ID</t>
-  </si>
-  <si>
-    <t>Please enter current enrolled course name</t>
-  </si>
-  <si>
-    <t>tester</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>29032000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>1276898</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
-    <t>Writedata1</t>
+    <t>Chronic Disease</t>
+  </si>
+  <si>
+    <t>Writedata4</t>
+  </si>
+  <si>
+    <t>prabhasuQZ2549@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhabakW</t>
+  </si>
+  <si>
+    <t>automationtmeh</t>
+  </si>
+  <si>
+    <t>Testdata5</t>
+  </si>
+  <si>
+    <t>test@</t>
+  </si>
+  <si>
+    <t>Elder Care</t>
+  </si>
+  <si>
+    <t>Writedata5</t>
+  </si>
+  <si>
+    <t>prabhaeaEu6457@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhahRVt</t>
+  </si>
+  <si>
+    <t>automationjejk</t>
+  </si>
+  <si>
+    <t>Testdata6</t>
+  </si>
+  <si>
+    <t>DEMTESTIONG</t>
+  </si>
+  <si>
+    <t>Writedata6</t>
   </si>
   <si>
     <t>prabhaqtgs4104@mailinator.com</t>
@@ -279,19 +387,10 @@
     <t>automationvbkm</t>
   </si>
   <si>
-    <t>Testdata2</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>!@#$%^&amp;</t>
-  </si>
-  <si>
-    <t>DEMTESTIONG</t>
-  </si>
-  <si>
-    <t>Writedata2</t>
+    <t>Testdata7</t>
+  </si>
+  <si>
+    <t>Writedata7</t>
   </si>
   <si>
     <t>prabhaSMpL1866@mailinator.com</t>
@@ -303,73 +402,85 @@
     <t>automationtzvv</t>
   </si>
   <si>
-    <t>Testdata3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123456 </t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t>Writedata3</t>
-  </si>
-  <si>
-    <t>prabhaYmTw8787@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaGhwD</t>
-  </si>
-  <si>
-    <t>automationfuer</t>
-  </si>
-  <si>
-    <t>Testdata4</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>test@</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>testval</t>
-  </si>
-  <si>
-    <t>Chronic Disease</t>
-  </si>
-  <si>
-    <t>Writedata4</t>
-  </si>
-  <si>
-    <t>prabhasuQZ2549@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhabakW</t>
-  </si>
-  <si>
-    <t>automationtmeh</t>
-  </si>
-  <si>
-    <t>Testdata5</t>
-  </si>
-  <si>
-    <t>Elder Care</t>
-  </si>
-  <si>
-    <t>Writedata5</t>
-  </si>
-  <si>
-    <t>prabhaeaEu6457@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhahRVt</t>
-  </si>
-  <si>
-    <t>automationjejk</t>
+    <t>Testdata8</t>
+  </si>
+  <si>
+    <t>Writedata8</t>
+  </si>
+  <si>
+    <t>Testdata9</t>
+  </si>
+  <si>
+    <t>Writedata9</t>
+  </si>
+  <si>
+    <t>Testdata10</t>
+  </si>
+  <si>
+    <t>25055512345</t>
+  </si>
+  <si>
+    <t>Writedata10</t>
+  </si>
+  <si>
+    <t>Testdata11</t>
+  </si>
+  <si>
+    <t>Writedata11</t>
+  </si>
+  <si>
+    <t>Testdata12</t>
+  </si>
+  <si>
+    <t>Writedata12</t>
+  </si>
+  <si>
+    <t>Testdata13</t>
+  </si>
+  <si>
+    <t>Writedata13</t>
+  </si>
+  <si>
+    <t>Testdata14</t>
+  </si>
+  <si>
+    <t>Writedata14</t>
+  </si>
+  <si>
+    <t>Testdata15</t>
+  </si>
+  <si>
+    <t>Writedata15</t>
+  </si>
+  <si>
+    <t>Testdata16</t>
+  </si>
+  <si>
+    <t>Writedata16</t>
+  </si>
+  <si>
+    <t>Testdata17</t>
+  </si>
+  <si>
+    <t>Writedata17</t>
+  </si>
+  <si>
+    <t>Testdata18</t>
+  </si>
+  <si>
+    <t>Writedata18</t>
+  </si>
+  <si>
+    <t>Testdata19</t>
+  </si>
+  <si>
+    <t>Writedata19</t>
+  </si>
+  <si>
+    <t>Testdata20</t>
+  </si>
+  <si>
+    <t>Writedata20</t>
   </si>
   <si>
     <t>Please enter first name,Please enter valid first name</t>
@@ -444,53 +555,56 @@
     <t>automationaqtf</t>
   </si>
   <si>
-    <t>Empty Sapce</t>
-  </si>
-  <si>
-    <t>onlynumber</t>
-  </si>
-  <si>
-    <t>SpecialChar</t>
-  </si>
-  <si>
-    <t>alpha$numaric</t>
-  </si>
-  <si>
-    <t>addoneNumber</t>
-  </si>
-  <si>
-    <t>addoneSpeciaChar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>!@#$%^^&amp;</t>
-  </si>
-  <si>
-    <t>LASR34@</t>
-  </si>
-  <si>
-    <t>demo1</t>
-  </si>
-  <si>
-    <t>demo@</t>
-  </si>
-  <si>
-    <t>Please enter first name</t>
-  </si>
-  <si>
-    <t>Please enter valid first name</t>
+    <t>prabhaMpDg1715@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaxGLq</t>
+  </si>
+  <si>
+    <t>automationzvit</t>
+  </si>
+  <si>
+    <t>prabhaQsRz9300@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaCXTN</t>
+  </si>
+  <si>
+    <t>automationkuat</t>
+  </si>
+  <si>
+    <t>prabhandLc4551@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaDVLw</t>
+  </si>
+  <si>
+    <t>automationnfdt</t>
+  </si>
+  <si>
+    <t>prabhatlOV8886@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaPRhZ</t>
+  </si>
+  <si>
+    <t>automationxhvh</t>
+  </si>
+  <si>
+    <t>prabhaNpWN7487@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaFPji</t>
+  </si>
+  <si>
+    <t>automationfzoi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,21 +635,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,12 +652,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -602,14 +697,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,15 +980,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -1101,90 +1191,90 @@
         <v>56</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AI2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="6"/>
@@ -1199,14 +1289,14 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1236,10 +1326,10 @@
     </row>
     <row r="4" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>44</v>
@@ -1281,90 +1371,90 @@
         <v>56</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="Z4" s="4">
         <v>12032020</v>
       </c>
       <c r="AA4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AI4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AL4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AM4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AN4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AO4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AP4" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1379,14 +1469,14 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1416,7 +1506,7 @@
     </row>
     <row r="6" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
@@ -1461,90 +1551,90 @@
         <v>56</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="S6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="V6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AI6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AL6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AM6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AN6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AO6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AN6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="AP6" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1559,14 +1649,14 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1596,7 +1686,7 @@
     </row>
     <row r="8" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -1635,7 +1725,7 @@
         <v>54</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>56</v>
@@ -1647,84 +1737,84 @@
         <v>104</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP8" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1739,14 +1829,14 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1774,9 +1864,9 @@
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
     </row>
-    <row r="10" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -1821,92 +1911,92 @@
         <v>56</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="T10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AI10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AJ10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI10" s="6" t="s">
+      <c r="AK10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ10" s="6" t="s">
+      <c r="AL10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK10" s="6" t="s">
+      <c r="AM10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL10" s="6" t="s">
+      <c r="AN10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM10" s="6" t="s">
+      <c r="AO10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AN10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO10" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="AP10" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1919,14 +2009,14 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1954,17 +2044,2762 @@
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
     </row>
+    <row r="12" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+    </row>
+    <row r="14" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>12032020</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+    </row>
+    <row r="16" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+    </row>
+    <row r="18" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+    </row>
+    <row r="20" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+    </row>
+    <row r="22" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP22" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+    </row>
+    <row r="24" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>12032020</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+    </row>
+    <row r="26" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP26" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+    </row>
+    <row r="28" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP28" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+    </row>
+    <row r="30" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP30" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+    </row>
+    <row r="32" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP32" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+    </row>
+    <row r="34" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>12032020</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP34" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+    </row>
+    <row r="36" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP36" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+    </row>
+    <row r="38" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP38" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+    </row>
+    <row r="40" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP40" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+    </row>
   </sheetData>
-  <dataValidations count="30">
+  <dataValidations count="121">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP10">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP12">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP16">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP18">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP20">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP22">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP24">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP26">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP28">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP30">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP32">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP34">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP36">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP38">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP40">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
@@ -1974,9 +4809,45 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B14">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B24">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32:B34">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
@@ -1986,12 +4857,57 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10">
       <formula1>"Empty,adsd@mailinator"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N18">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"Empty,adsd@mailinator"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N20">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N22">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N24">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N26">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N28">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N30">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N32">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N34">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N36">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N38">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4">
       <formula1>"Empty,adsd@mailinator"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N40">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
       <formula1>"Empty,adsd@mailinator"</formula1>
     </dataValidation>
@@ -2001,12 +4917,57 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:Q10">
       <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:Q12">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P14:Q14">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P16:Q16">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P18:Q18">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q2">
       <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P20:Q20">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P22:Q22">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P24:Q24">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P26:Q26">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P28:Q28">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P30:Q30">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P32:Q32">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P34:Q34">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P36:Q36">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P38:Q38">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4">
       <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P40:Q40">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:Q6">
       <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
     </dataValidation>
@@ -2016,12 +4977,57 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10">
       <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R16">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R18">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
       <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R20">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R22">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R24">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R26">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R28">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R30">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R32">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R34">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R36">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R38">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4">
       <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R40">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6">
       <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
@@ -2029,22 +5035,79 @@
       <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10:T10">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12:T12">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14:T14">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S16">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S18">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:T2">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20:T20">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S22">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S24:T24">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S26:T26">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S28:T28">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S30:T30">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S32:T32">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S34:T34">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S36:T36">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S38:T38">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:T4">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S40:T40">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T16">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:T2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T18">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:T4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T22">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8:T8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6">
-      <formula1>"'1234563,@#$^%&amp;&amp;,testval,DEMTESTIONG,Empty"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2246,16 +5309,16 @@
         <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>51</v>
@@ -2264,7 +5327,7 @@
         <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>54</v>
@@ -2276,90 +5339,90 @@
         <v>56</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="R2" s="4">
         <v>25055512</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AI2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2374,14 +5437,14 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="6" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="6"/>
@@ -2411,10 +5474,10 @@
     </row>
     <row r="4" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>44</v>
@@ -2426,16 +5489,16 @@
         <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>51</v>
@@ -2444,7 +5507,7 @@
         <v>52</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>54</v>
@@ -2456,90 +5519,90 @@
         <v>56</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="R4" s="4">
         <v>25055512</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="U4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="Z4" s="4">
         <v>12032020</v>
       </c>
       <c r="AA4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AI4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AL4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AM4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AN4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AO4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AP4" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2554,14 +5617,14 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="5" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="6"/>
@@ -2591,7 +5654,7 @@
     </row>
     <row r="6" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
@@ -2606,16 +5669,16 @@
         <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>51</v>
@@ -2624,7 +5687,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>54</v>
@@ -2636,90 +5699,90 @@
         <v>56</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="R6" s="4">
         <v>25055512</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="U6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AI6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AL6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AM6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AN6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AO6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AN6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="AP6" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2734,14 +5797,14 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="6" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="6"/>
@@ -2771,7 +5834,7 @@
     </row>
     <row r="8" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -2786,16 +5849,16 @@
         <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>51</v>
@@ -2804,7 +5867,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>54</v>
@@ -2816,90 +5879,90 @@
         <v>56</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="R8" s="4">
         <v>25055512</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="U8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AF8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AG8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AI8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AK8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ8" s="6" t="s">
+      <c r="AL8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK8" s="6" t="s">
+      <c r="AM8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL8" s="6" t="s">
+      <c r="AN8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM8" s="6" t="s">
+      <c r="AO8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AN8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="AP8" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2914,14 +5977,14 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="6"/>
@@ -2951,7 +6014,7 @@
     </row>
     <row r="10" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -2966,16 +6029,16 @@
         <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>51</v>
@@ -2984,7 +6047,7 @@
         <v>52</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>54</v>
@@ -2996,90 +6059,90 @@
         <v>56</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="R10" s="4">
         <v>25055512</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="U10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AI10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AJ10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI10" s="6" t="s">
+      <c r="AK10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ10" s="6" t="s">
+      <c r="AL10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK10" s="6" t="s">
+      <c r="AM10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL10" s="6" t="s">
+      <c r="AN10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AM10" s="6" t="s">
+      <c r="AO10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AN10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO10" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="AP10" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3094,14 +6157,14 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="6" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="6"/>
@@ -3168,91 +6231,4116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="21" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+    </row>
+    <row r="4" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>12032020</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+    </row>
+    <row r="6" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+    </row>
+    <row r="8" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+    </row>
+    <row r="10" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+    </row>
+    <row r="12" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+    </row>
+    <row r="14" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>12032020</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+    </row>
+    <row r="16" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+    </row>
+    <row r="18" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+    </row>
+    <row r="20" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+    </row>
+    <row r="22" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP22" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+    </row>
+    <row r="24" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>12032020</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+    </row>
+    <row r="26" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP26" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+    </row>
+    <row r="28" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP28" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+    </row>
+    <row r="30" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP30" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+    </row>
+    <row r="32" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP32" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+    </row>
+    <row r="34" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="B34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>12032020</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP34" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="35" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+    </row>
+    <row r="36" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP36" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+    </row>
+    <row r="38" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="8" t="s">
+      <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP38" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+    </row>
+    <row r="40" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP40" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="41" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>155</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP10">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP12">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP16">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP18">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP20">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP22">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP24">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP26">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP28">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP30">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP32">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP34">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP36">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP38">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP40">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP8">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B14">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B24">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32:B34">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N18">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N20">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N22">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N24">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N26">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N28">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N30">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N32">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N34">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N36">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N38">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N40">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:Q10">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:Q12">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P14:Q14">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P16:Q16">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P18:Q18">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q2">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P20:Q20">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P22:Q22">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P24:Q24">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P26:Q26">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P28:Q28">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P30:Q30">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P32:Q32">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P34:Q34">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P36:Q36">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P38:Q38">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P40:Q40">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:Q6">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8:Q8">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R16">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R18">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R20">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R22">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R24">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R26">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R28">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R30">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R32">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R34">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R36">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R38">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R40">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10:T10">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12:T12">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14:T14">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S16:T16">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S18:T18">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:T2">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20:T20">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S22:T22 T24 T26 T28 T30">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S24">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S26">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S28">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S30">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S32:T32">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S34:T34">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S36:T36">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S38:T38">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:T4">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S40:T40">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6:T6">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8:T8">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>

--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -11,7 +11,7 @@
     <sheet name="TC_03" sheetId="6" r:id="rId2"/>
     <sheet name="TC_04" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -555,31 +555,31 @@
     <t>automationaqtf</t>
   </si>
   <si>
-    <t>prabhaMpDg1715@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaxGLq</t>
-  </si>
-  <si>
-    <t>automationzvit</t>
-  </si>
-  <si>
-    <t>prabhaQsRz9300@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaCXTN</t>
-  </si>
-  <si>
-    <t>automationkuat</t>
-  </si>
-  <si>
-    <t>prabhandLc4551@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaDVLw</t>
-  </si>
-  <si>
-    <t>automationnfdt</t>
+    <t>prabhaazoK2320@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhabSmo</t>
+  </si>
+  <si>
+    <t>automationqfyh</t>
+  </si>
+  <si>
+    <t>prabhaMotD4942@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaoTOD</t>
+  </si>
+  <si>
+    <t>automationhkkk</t>
+  </si>
+  <si>
+    <t>prabhabCmn5550@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhalHtQ</t>
+  </si>
+  <si>
+    <t>automationefvm</t>
   </si>
   <si>
     <t>prabhatlOV8886@mailinator.com</t>
@@ -683,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -695,9 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6234,7 +6231,7 @@
   <dimension ref="A1:AP41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6250,7 +6247,7 @@
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
@@ -6604,7 +6601,7 @@
       <c r="K4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>53</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -6628,7 +6625,7 @@
       <c r="S4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="6" t="s">
         <v>89</v>
       </c>
       <c r="U4" s="6" t="s">
@@ -6808,7 +6805,7 @@
       <c r="S6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="6" t="s">
         <v>89</v>
       </c>
       <c r="U6" s="6" t="s">
@@ -6988,7 +6985,7 @@
       <c r="S8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="6" t="s">
         <v>97</v>
       </c>
       <c r="U8" s="6" t="s">
@@ -7168,7 +7165,7 @@
       <c r="S10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="6" t="s">
         <v>89</v>
       </c>
       <c r="U10" s="6" t="s">
@@ -7348,7 +7345,7 @@
       <c r="S12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="6" t="s">
         <v>97</v>
       </c>
       <c r="U12" s="6" t="s">
@@ -7708,7 +7705,7 @@
       <c r="S16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="6" t="s">
         <v>89</v>
       </c>
       <c r="U16" s="6" t="s">
@@ -8248,7 +8245,7 @@
       <c r="S22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="T22" s="6" t="s">
         <v>97</v>
       </c>
       <c r="U22" s="6" t="s">
@@ -8428,7 +8425,7 @@
       <c r="S24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="6" t="s">
         <v>97</v>
       </c>
       <c r="U24" s="6" t="s">
@@ -8608,7 +8605,7 @@
       <c r="S26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T26" s="6" t="s">
         <v>97</v>
       </c>
       <c r="U26" s="6" t="s">
@@ -8788,7 +8785,7 @@
       <c r="S28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="7" t="s">
+      <c r="T28" s="6" t="s">
         <v>89</v>
       </c>
       <c r="U28" s="6" t="s">
@@ -8968,7 +8965,7 @@
       <c r="S30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="T30" s="6" t="s">
         <v>89</v>
       </c>
       <c r="U30" s="6" t="s">
@@ -9148,7 +9145,7 @@
       <c r="S32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T32" s="7" t="s">
+      <c r="T32" s="6" t="s">
         <v>97</v>
       </c>
       <c r="U32" s="6" t="s">
@@ -9328,7 +9325,7 @@
       <c r="S34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="T34" s="6" t="s">
         <v>89</v>
       </c>
       <c r="U34" s="6" t="s">
@@ -9688,7 +9685,7 @@
       <c r="S38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T38" s="7" t="s">
+      <c r="T38" s="6" t="s">
         <v>89</v>
       </c>
       <c r="U38" s="6" t="s">
@@ -10301,19 +10298,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20:T20">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S22:T22 T24 T26 T28 T30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S22:T22">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S24:T24">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S26:T26">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S28:T28">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S30:T30">
       <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S32:T32">

--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_02" sheetId="5" r:id="rId1"/>
-    <sheet name="TC_03" sheetId="6" r:id="rId2"/>
-    <sheet name="TC_04" sheetId="7" r:id="rId3"/>
+    <sheet sheetId="5" name="TC_02" state="visible" r:id="rId4"/>
+    <sheet sheetId="6" name="TC_03" state="visible" r:id="rId5"/>
+    <sheet sheetId="7" name="TC_04" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -564,13 +564,13 @@
     <t>automationqfyh</t>
   </si>
   <si>
-    <t>prabhaMotD4942@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaoTOD</t>
-  </si>
-  <si>
-    <t>automationhkkk</t>
+    <t>prabhaxFkX7622@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhafQqT</t>
+  </si>
+  <si>
+    <t>automationqtsi</t>
   </si>
   <si>
     <t>prabhabCmn5550@mailinator.com</t>
@@ -606,34 +606,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -645,13 +645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,15 +975,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1013,7 +1013,7 @@
     <col min="42" max="42" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
     </row>
-    <row r="4" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>90</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
     </row>
-    <row r="6" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>94</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
     </row>
-    <row r="8" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>103</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
     </row>
-    <row r="10" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
     </row>
-    <row r="12" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>119</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="AO13" s="6"/>
       <c r="AP13" s="6"/>
     </row>
-    <row r="14" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>123</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>124</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="AO15" s="6"/>
       <c r="AP15" s="6"/>
     </row>
-    <row r="16" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>128</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>129</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="AO17" s="6"/>
       <c r="AP17" s="6"/>
     </row>
-    <row r="18" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>130</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>131</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="AO19" s="6"/>
       <c r="AP19" s="6"/>
     </row>
-    <row r="20" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>132</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>134</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="AO21" s="6"/>
       <c r="AP21" s="6"/>
     </row>
-    <row r="22" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>135</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>136</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="AO23" s="6"/>
       <c r="AP23" s="6"/>
     </row>
-    <row r="24" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>137</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>138</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="AO25" s="6"/>
       <c r="AP25" s="6"/>
     </row>
-    <row r="26" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>139</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>140</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="AO27" s="6"/>
       <c r="AP27" s="6"/>
     </row>
-    <row r="28" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>141</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>142</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
     </row>
-    <row r="30" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>143</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>144</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="AO31" s="6"/>
       <c r="AP31" s="6"/>
     </row>
-    <row r="32" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>145</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="AO33" s="6"/>
       <c r="AP33" s="6"/>
     </row>
-    <row r="34" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>147</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="45" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>148</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="AO35" s="6"/>
       <c r="AP35" s="6"/>
     </row>
-    <row r="36" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>149</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>150</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="AO37" s="6"/>
       <c r="AP37" s="6"/>
     </row>
-    <row r="38" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="60" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>151</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>152</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="AO39" s="6"/>
       <c r="AP39" s="6"/>
     </row>
-    <row r="40" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>153</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -5108,19 +5108,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -5161,7 +5161,7 @@
     <col min="39" max="39" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
     </row>
-    <row r="4" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>90</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
     </row>
-    <row r="6" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>94</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
     </row>
-    <row r="8" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>103</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
     </row>
-    <row r="10" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -6226,15 +6226,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
@@ -6259,7 +6259,7 @@
     <col min="21" max="21" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -6567,7 +6567,7 @@
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
     </row>
-    <row r="4" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>90</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
     </row>
-    <row r="6" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>94</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
@@ -6927,7 +6927,7 @@
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
     </row>
-    <row r="8" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>103</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
@@ -7107,7 +7107,7 @@
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
     </row>
-    <row r="10" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
     </row>
-    <row r="12" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>119</v>
       </c>
@@ -7467,7 +7467,7 @@
       <c r="AO13" s="6"/>
       <c r="AP13" s="6"/>
     </row>
-    <row r="14" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>123</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>124</v>
       </c>
@@ -7647,7 +7647,7 @@
       <c r="AO15" s="6"/>
       <c r="AP15" s="6"/>
     </row>
-    <row r="16" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>128</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>129</v>
       </c>
@@ -7827,7 +7827,7 @@
       <c r="AO17" s="6"/>
       <c r="AP17" s="6"/>
     </row>
-    <row r="18" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>130</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>131</v>
       </c>
@@ -8007,7 +8007,7 @@
       <c r="AO19" s="6"/>
       <c r="AP19" s="6"/>
     </row>
-    <row r="20" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>132</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>134</v>
       </c>
@@ -8187,7 +8187,7 @@
       <c r="AO21" s="6"/>
       <c r="AP21" s="6"/>
     </row>
-    <row r="22" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>135</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>136</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="AO23" s="6"/>
       <c r="AP23" s="6"/>
     </row>
-    <row r="24" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>137</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>138</v>
       </c>
@@ -8547,7 +8547,7 @@
       <c r="AO25" s="6"/>
       <c r="AP25" s="6"/>
     </row>
-    <row r="26" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>139</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>140</v>
       </c>
@@ -8727,7 +8727,7 @@
       <c r="AO27" s="6"/>
       <c r="AP27" s="6"/>
     </row>
-    <row r="28" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>141</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>142</v>
       </c>
@@ -8907,7 +8907,7 @@
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
     </row>
-    <row r="30" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>143</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>144</v>
       </c>
@@ -9087,7 +9087,7 @@
       <c r="AO31" s="6"/>
       <c r="AP31" s="6"/>
     </row>
-    <row r="32" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>145</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="AO33" s="6"/>
       <c r="AP33" s="6"/>
     </row>
-    <row r="34" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>147</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>148</v>
       </c>
@@ -9447,7 +9447,7 @@
       <c r="AO35" s="6"/>
       <c r="AP35" s="6"/>
     </row>
-    <row r="36" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>149</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>150</v>
       </c>
@@ -9627,7 +9627,7 @@
       <c r="AO37" s="6"/>
       <c r="AP37" s="6"/>
     </row>
-    <row r="38" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>151</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>152</v>
       </c>
@@ -9807,7 +9807,7 @@
       <c r="AO39" s="6"/>
       <c r="AP39" s="6"/>
     </row>
-    <row r="40" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>153</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -10339,6 +10339,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="7" name="SignUpNegative" state="visible" r:id="rId4"/>
+    <sheet name="SignUpNegative" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -541,34 +541,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -580,13 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,15 +910,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="AE35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
@@ -962,7 +962,7 @@
     <col min="42" max="42" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="79.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>92</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
     </row>
-    <row r="6" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>96</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
     </row>
-    <row r="8" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>105</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
     </row>
-    <row r="10" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>112</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>116</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
     </row>
-    <row r="12" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>120</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>122</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="AO13" s="6"/>
       <c r="AP13" s="6"/>
     </row>
-    <row r="14" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>126</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>127</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="AO15" s="6"/>
       <c r="AP15" s="6"/>
     </row>
-    <row r="16" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>131</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>132</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="AO17" s="6"/>
       <c r="AP17" s="6"/>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>136</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>137</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="AO19" s="6"/>
       <c r="AP19" s="6"/>
     </row>
-    <row r="20" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>141</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>142</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="AO21" s="6"/>
       <c r="AP21" s="6"/>
     </row>
-    <row r="22" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>146</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>148</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="AO23" s="6"/>
       <c r="AP23" s="6"/>
     </row>
-    <row r="24" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>149</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>150</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="AO25" s="6"/>
       <c r="AP25" s="6"/>
     </row>
-    <row r="26" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>151</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>152</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="AO27" s="6"/>
       <c r="AP27" s="6"/>
     </row>
-    <row r="28" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>153</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>154</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
     </row>
-    <row r="30" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>155</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>157</v>
       </c>
@@ -3790,7 +3790,7 @@
       <c r="AO31" s="6"/>
       <c r="AP31" s="6"/>
     </row>
-    <row r="32" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>160</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="AO33" s="6"/>
       <c r="AP33" s="6"/>
     </row>
-    <row r="34" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>161</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>163</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="AO35" s="6"/>
       <c r="AP35" s="6"/>
     </row>
-    <row r="36" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>164</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>166</v>
       </c>
@@ -4330,7 +4330,7 @@
       <c r="AO37" s="6"/>
       <c r="AP37" s="6"/>
     </row>
-    <row r="38" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>167</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>169</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="AO39" s="6"/>
       <c r="AP39" s="6"/>
     </row>
-    <row r="40" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>170</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" ht="40.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>172</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="AP41" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="174">
+  <dataValidations count="175">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA10">
       <formula1>"Empty,12031894"</formula1>
     </dataValidation>
@@ -5214,8 +5214,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z8">
       <formula1>"Empty,12032020"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2 AJ4 AJ6 AJ8 AJ10 AJ12 AJ14 AJ16 AJ18 AJ20 AJ22 AJ24 AJ26 AJ28 AJ30 AJ32 AJ34 AJ36 AJ38 AJ40">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -58,24 +58,24 @@
     <t>Email</t>
   </si>
   <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>InvalidPhoneNumber</t>
+  </si>
+  <si>
+    <t>InvalidRepeatPassword</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>InvalidPhoneNumber</t>
-  </si>
-  <si>
-    <t>InvalidPassword</t>
-  </si>
-  <si>
-    <t>InvalidRepeatPassword</t>
-  </si>
-  <si>
     <t>Phone number</t>
   </si>
   <si>
@@ -184,12 +184,15 @@
     <t>Empty</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>#$%@#&amp;</t>
+  </si>
+  <si>
     <t>Prabha@123</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>2505551234</t>
   </si>
   <si>
@@ -250,13 +253,13 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabhabwSg2040@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaKcrb</t>
-  </si>
-  <si>
-    <t>automationlunp</t>
+    <t>prabhaslQi6399@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaMemJ</t>
+  </si>
+  <si>
+    <t>automationdeui</t>
   </si>
   <si>
     <t>Testdata2</t>
@@ -268,15 +271,12 @@
     <t>!@#$</t>
   </si>
   <si>
+    <t>@#$^%&amp;&amp;</t>
+  </si>
+  <si>
     <t>!@#$%^&amp;</t>
   </si>
   <si>
-    <t>#$%@#&amp;</t>
-  </si>
-  <si>
-    <t>@#$^%&amp;&amp;</t>
-  </si>
-  <si>
     <t>@#$%^</t>
   </si>
   <si>
@@ -289,13 +289,13 @@
     <t>Writedata2</t>
   </si>
   <si>
-    <t>prabhaUHCo7219@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaCVde</t>
-  </si>
-  <si>
-    <t>automationhxuy</t>
+    <t>prabhaQRYj6843@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaRDCn</t>
+  </si>
+  <si>
+    <t>automationjmsh</t>
   </si>
   <si>
     <t>Testdata3</t>
@@ -304,15 +304,15 @@
     <t>24324</t>
   </si>
   <si>
+    <t>1234563</t>
+  </si>
+  <si>
     <t xml:space="preserve">123456 </t>
   </si>
   <si>
     <t>25055512345</t>
   </si>
   <si>
-    <t>1234563</t>
-  </si>
-  <si>
     <t>772345</t>
   </si>
   <si>
@@ -385,27 +385,30 @@
     <t>Testdata6</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>Writedata6</t>
+  </si>
+  <si>
+    <t>prabhaqtgs4104@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaufuE</t>
+  </si>
+  <si>
+    <t>automationvbkm</t>
+  </si>
+  <si>
+    <t>Testdata7</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>000000</t>
-  </si>
-  <si>
-    <t>Writedata6</t>
-  </si>
-  <si>
-    <t>prabhaqtgs4104@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaufuE</t>
-  </si>
-  <si>
-    <t>automationvbkm</t>
-  </si>
-  <si>
-    <t>Testdata7</t>
-  </si>
-  <si>
     <t>Writedata7</t>
   </si>
   <si>
@@ -416,9 +419,6 @@
   </si>
   <si>
     <t>automationtzvv</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -527,11 +527,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,11 +830,11 @@
     <col min="10" max="10" width="34.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="29.28515625" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="14" max="15" width="17.85546875" customWidth="1"/>
     <col min="16" max="16" width="20.28515625" customWidth="1"/>
     <col min="17" max="17" width="19.42578125" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
     <col min="21" max="21" width="16.140625" customWidth="1"/>
@@ -906,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>15</v>
@@ -918,10 +915,10 @@
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>20</v>
@@ -1034,7 +1031,7 @@
         <v>55</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>55</v>
@@ -1042,29 +1039,29 @@
       <c r="Q2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>55</v>
@@ -1073,54 +1070,54 @@
         <v>55</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7"/>
@@ -1135,14 +1132,14 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -1172,10 +1169,10 @@
     </row>
     <row r="4" spans="1:42" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>44</v>
@@ -1211,40 +1208,40 @@
         <v>54</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="T4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>87</v>
@@ -1253,49 +1250,49 @@
         <v>88</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP4" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,37 +1391,37 @@
         <v>95</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="S6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="T6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z6" s="5">
         <v>12032020</v>
@@ -1433,46 +1430,46 @@
         <v>12031894</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC6" s="5" t="s">
         <v>99</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG6" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI6" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL6" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP6" s="7" t="s">
         <v>100</v>
@@ -1589,22 +1586,22 @@
         <v>106</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>106</v>
@@ -1613,46 +1610,46 @@
         <v>106</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>107</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF8" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP8" s="7" t="s">
         <v>108</v>
@@ -1769,22 +1766,22 @@
         <v>115</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z10" s="5">
         <v>12032020</v>
@@ -1793,46 +1790,46 @@
         <v>12031894</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC10" s="5" t="s">
         <v>116</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM10" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP10" s="7" t="s">
         <v>117</v>
@@ -1931,40 +1928,40 @@
         <v>54</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z12" s="5">
         <v>12032020</v>
@@ -1973,49 +1970,49 @@
         <v>12031894</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC12" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AJ12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2075,7 +2072,7 @@
         <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>44</v>
@@ -2110,41 +2107,41 @@
       <c r="M14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>123</v>
+      <c r="N14" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z14" s="5">
         <v>12032020</v>
@@ -2153,54 +2150,54 @@
         <v>12031894</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AJ14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -2215,14 +2212,14 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -2251,26 +2248,104 @@
       <c r="AP15" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA10 AA6 AA2 AA14 AA12">
+  <dataValidations count="75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA10">
+      <formula1>"Empty,12031894"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA12">
+      <formula1>"Empty,12031894"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA14">
+      <formula1>"Empty,12031894"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
       <formula1>"Empty,12031894"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA4">
       <formula1>"Empty,12031894,'@#$^&amp;"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6">
+      <formula1>"Empty,12031894"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA8">
       <formula1>"Empty,12031894,test1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI10 AI8 AI6 AI4 AI2 AI14 AI12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI10">
       <formula1>"Empty,tester,123$#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ10 AJ8 AJ6 AJ4 AJ2 AJ14 AJ12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI12">
+      <formula1>"Empty,tester,123$#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI14">
+      <formula1>"Empty,tester,123$#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2">
+      <formula1>"Empty,tester,123$#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI4">
+      <formula1>"Empty,tester,123$#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6">
+      <formula1>"Empty,tester,123$#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8">
+      <formula1>"Empty,tester,123$#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ10">
       <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP10 AP8 AP6 AP4 AP2 AP14 AP12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ12">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ14">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ4">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ8">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP10">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B8 B6 B2:B4 B12:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP12">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP8">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B14">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10">
@@ -2279,68 +2354,125 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12">
       <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,'@1234,'2"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
+      <formula1>"Empty,adsd@mailinator,'2"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"Empty,adsd@mailinator"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 N6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4">
       <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,@1234"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:Q10 P8:Q8 P6:Q6 P4:Q4 P2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
+      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8">
+      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test1,Test,@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Test"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,'2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:Q10">
       <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:Q12">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@,Test"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P14:Q14">
       <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@,'2"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q2">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:Q6">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8:Q8">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10">
       <formula1>"'25055512,'2,'25055512345,Empty,test@"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14 R6 R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">
+      <formula1>"'25055512,'2,'25055512345,Empty,Test"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14">
       <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+      <formula1>"'25055512,'2,'25055512345,Empty,#$%@#&amp;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4">
       <formula1>"'25055512,'2,'25055512345,Empty,#$%@#&amp;"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8">
       <formula1>"'25055512,'2,'25055512345,Empty,test1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z10 Z6 Z2 Z14 Z12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Test"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,'2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z10">
+      <formula1>"Empty,12032020"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z12">
+      <formula1>"Empty,12032020"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z14">
+      <formula1>"Empty,12032020"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2">
       <formula1>"Empty,12032020"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4">
       <formula1>"Empty,12032020,'@#$%^"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6">
+      <formula1>"Empty,12032020"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z8">
       <formula1>"Empty,12032020,test1,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10 S10">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 O4 S6 O6">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14 S14">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,'2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 S2">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,empty"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8 S8">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8">
-      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test1,Test,@1234"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12 S12">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Test"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12 Q12">
-      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@,Test"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">
-      <formula1>"'25055512,'2,'25055512345,Empty,Test"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
-      <formula1>"Empty,adsd@mailinator,'2"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataFiles/Signup-Negative.xlsx
+++ b/dataFiles/Signup-Negative.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="143">
   <si>
     <t>Field</t>
   </si>
@@ -419,6 +419,30 @@
   </si>
   <si>
     <t>automationtzvv</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>To verify the user enter only empty space</t>
+  </si>
+  <si>
+    <t>To verify the user enter the special charaters only</t>
+  </si>
+  <si>
+    <t>To verify the user enter the numbers only</t>
+  </si>
+  <si>
+    <t>To verify the user enter the character and number only</t>
+  </si>
+  <si>
+    <t>To verify the user enter the special charaters and number only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the user enter the first letter uppercase </t>
+  </si>
+  <si>
+    <t>To verify the user enter the 2 number only</t>
   </si>
 </sst>
 </file>
@@ -810,317 +834,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" customWidth="1"/>
-    <col min="23" max="23" width="40.42578125" customWidth="1"/>
-    <col min="24" max="24" width="31" customWidth="1"/>
-    <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="20.42578125" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" customWidth="1"/>
-    <col min="28" max="28" width="38.5703125" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" customWidth="1"/>
-    <col min="30" max="30" width="21.85546875" customWidth="1"/>
-    <col min="31" max="31" width="28" customWidth="1"/>
-    <col min="32" max="32" width="23" customWidth="1"/>
-    <col min="33" max="33" width="20.28515625" customWidth="1"/>
-    <col min="34" max="34" width="25.28515625" customWidth="1"/>
-    <col min="35" max="35" width="16.42578125" customWidth="1"/>
-    <col min="36" max="36" width="13.5703125" customWidth="1"/>
-    <col min="38" max="38" width="14" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" customWidth="1"/>
-    <col min="42" max="42" width="9.42578125" customWidth="1"/>
+    <col min="1" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="15" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" customWidth="1"/>
+    <col min="20" max="20" width="21" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="25.7109375" customWidth="1"/>
+    <col min="24" max="24" width="40.42578125" customWidth="1"/>
+    <col min="25" max="25" width="31" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" customWidth="1"/>
+    <col min="29" max="29" width="38.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" customWidth="1"/>
+    <col min="32" max="32" width="28" customWidth="1"/>
+    <col min="33" max="33" width="23" customWidth="1"/>
+    <col min="34" max="34" width="20.28515625" customWidth="1"/>
+    <col min="35" max="35" width="25.28515625" customWidth="1"/>
+    <col min="36" max="36" width="16.42578125" customWidth="1"/>
+    <col min="37" max="37" width="13.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" customWidth="1"/>
+    <col min="42" max="42" width="15.85546875" customWidth="1"/>
+    <col min="43" max="43" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AB2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1131,17 +1161,17 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -1166,141 +1196,145 @@
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
     </row>
-    <row r="4" spans="1:42" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AF4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AG4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AH4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AO4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AP4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AQ4" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1311,17 +1345,17 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1346,141 +1380,145 @@
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
     </row>
-    <row r="6" spans="1:42" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="S6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="T6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="X6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="Y6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Z6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AA6" s="5">
         <v>12032020</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AB6" s="5">
         <v>12031894</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AC6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AD6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AE6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AF6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AG6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AH6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AH6" s="7" t="s">
+      <c r="AI6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AI6" s="7" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ6" s="7" t="s">
+      <c r="AK6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AK6" s="7" t="s">
+      <c r="AL6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AM6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AM6" s="7" t="s">
+      <c r="AN6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AN6" s="7" t="s">
+      <c r="AO6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AO6" s="7" t="s">
+      <c r="AP6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP6" s="7" t="s">
+      <c r="AQ6" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1491,17 +1529,17 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1526,49 +1564,50 @@
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
     </row>
-    <row r="8" spans="1:42" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>106</v>
@@ -1576,91 +1615,94 @@
       <c r="P8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="6" t="s">
         <v>106</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="T8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="W8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="X8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="Y8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Z8" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AB8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AD8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AD8" s="7" t="s">
+      <c r="AE8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AF8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AF8" s="7" t="s">
+      <c r="AG8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="7" t="s">
+      <c r="AH8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AH8" s="7" t="s">
+      <c r="AI8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AI8" s="7" t="s">
+      <c r="AJ8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ8" s="7" t="s">
+      <c r="AK8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AK8" s="7" t="s">
+      <c r="AL8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AL8" s="7" t="s">
+      <c r="AM8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AM8" s="7" t="s">
+      <c r="AN8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AN8" s="7" t="s">
+      <c r="AO8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AO8" s="7" t="s">
+      <c r="AP8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP8" s="7" t="s">
+      <c r="AQ8" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1671,17 +1713,17 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1706,141 +1748,145 @@
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
     </row>
-    <row r="10" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="6" t="s">
         <v>115</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>115</v>
       </c>
       <c r="T10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="V10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="X10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="Y10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Z10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AA10" s="5">
         <v>12032020</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AB10" s="5">
         <v>12031894</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AC10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AD10" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AE10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AF10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AF10" s="7" t="s">
+      <c r="AG10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG10" s="7" t="s">
+      <c r="AH10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AI10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AI10" s="7" t="s">
+      <c r="AJ10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AK10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AK10" s="7" t="s">
+      <c r="AL10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AM10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AN10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AO10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AO10" s="7" t="s">
+      <c r="AP10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP10" s="7" t="s">
+      <c r="AQ10" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1851,17 +1897,17 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1886,49 +1932,50 @@
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
     </row>
-    <row r="12" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>123</v>
@@ -1936,91 +1983,94 @@
       <c r="P12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="6" t="s">
         <v>123</v>
       </c>
       <c r="S12" s="7" t="s">
         <v>123</v>
       </c>
       <c r="T12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="V12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="W12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="W12" s="7" t="s">
+      <c r="X12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X12" s="7" t="s">
+      <c r="Y12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Z12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AA12" s="5">
         <v>12032020</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AB12" s="5">
         <v>12031894</v>
       </c>
-      <c r="AB12" s="7" t="s">
+      <c r="AC12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AD12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AD12" s="7" t="s">
+      <c r="AE12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AE12" s="7" t="s">
+      <c r="AF12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AF12" s="7" t="s">
+      <c r="AG12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG12" s="7" t="s">
+      <c r="AH12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AH12" s="7" t="s">
+      <c r="AI12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AI12" s="7" t="s">
+      <c r="AJ12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ12" s="7" t="s">
+      <c r="AK12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AK12" s="7" t="s">
+      <c r="AL12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AL12" s="7" t="s">
+      <c r="AM12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AM12" s="7" t="s">
+      <c r="AN12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AN12" s="7" t="s">
+      <c r="AO12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AO12" s="7" t="s">
+      <c r="AP12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP12" s="7" t="s">
+      <c r="AQ12" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2031,17 +2081,17 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="R13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -2066,49 +2116,50 @@
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
     </row>
-    <row r="14" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>130</v>
@@ -2116,91 +2167,94 @@
       <c r="P14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="6" t="s">
         <v>130</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>130</v>
       </c>
       <c r="T14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="V14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="W14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="X14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="Y14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Z14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AA14" s="5">
         <v>12032020</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AB14" s="5">
         <v>12031894</v>
       </c>
-      <c r="AB14" s="7" t="s">
+      <c r="AC14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AC14" s="7" t="s">
+      <c r="AD14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AD14" s="7" t="s">
+      <c r="AE14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AE14" s="7" t="s">
+      <c r="AF14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AF14" s="7" t="s">
+      <c r="AG14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG14" s="7" t="s">
+      <c r="AH14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AH14" s="7" t="s">
+      <c r="AI14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AI14" s="7" t="s">
+      <c r="AJ14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ14" s="7" t="s">
+      <c r="AK14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AK14" s="7" t="s">
+      <c r="AL14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AL14" s="7" t="s">
+      <c r="AM14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AM14" s="7" t="s">
+      <c r="AN14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AN14" s="7" t="s">
+      <c r="AO14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AO14" s="7" t="s">
+      <c r="AP14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP14" s="7" t="s">
+      <c r="AQ14" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2211,17 +2265,17 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="R15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -2246,232 +2300,98 @@
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="75">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA10">
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB10 AB6 AB2 AB14 AB12">
       <formula1>"Empty,12031894"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA12">
-      <formula1>"Empty,12031894"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA14">
-      <formula1>"Empty,12031894"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
-      <formula1>"Empty,12031894"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4">
+      <formula1>"Empty,12031894,'@#$^&amp;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8">
+      <formula1>"Empty,12031894,test1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ10 AJ8 AJ6 AJ4 AJ2 AJ14 AJ12">
+      <formula1>"Empty,tester,123$#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK10 AK8 AK6 AK4 AK2 AK14 AK12">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ10 AQ8 AQ6 AQ4 AQ2 AQ14 AQ12">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C8 C6 C2:C4 C12:C14">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10">
+      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,'@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12">
+      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,'@1234,'2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
+      <formula1>"Empty,adsd@mailinator,'2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"Empty,adsd@mailinator"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4 O6">
+      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8">
+      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test1,Test,@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10 T10">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12 T12">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Test"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P14 T14">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,'2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 T2">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4 T6 T4 P6">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8 T8">
+      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10:R10 Q8:R8 Q6:R6 Q4:R4 Q2:R2">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q12:R12">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@,Test"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q14:R14">
+      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@,'2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
+      <formula1>"'25055512,'2,'25055512345,Empty,test@"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12">
+      <formula1>"'25055512,'2,'25055512345,Empty,Test"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14 S6">
+      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2 S4">
+      <formula1>"'25055512,'2,'25055512345,Empty,#$%@#&amp;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8">
+      <formula1>"'25055512,'2,'25055512345,Empty,test1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA10 AA6 AA2 AA14 AA12">
+      <formula1>"Empty,12032020"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA4">
-      <formula1>"Empty,12031894,'@#$^&amp;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6">
-      <formula1>"Empty,12031894"</formula1>
+      <formula1>"Empty,12032020,'@#$%^"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA8">
-      <formula1>"Empty,12031894,test1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI10">
-      <formula1>"Empty,tester,123$#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI12">
-      <formula1>"Empty,tester,123$#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI14">
-      <formula1>"Empty,tester,123$#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2">
-      <formula1>"Empty,tester,123$#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI4">
-      <formula1>"Empty,tester,123$#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6">
-      <formula1>"Empty,tester,123$#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8">
-      <formula1>"Empty,tester,123$#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ10">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ12">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ14">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ4">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ8">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP10">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP12">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP14">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP8">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B14">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10">
-      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,'@1234"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12">
-      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,'@1234,'2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
-      <formula1>"Empty,adsd@mailinator,'2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"Empty,adsd@mailinator"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4">
-      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,@1234"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
-      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test,Test,@1234"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8">
-      <formula1>"Empty,adsd@mailinator,'24324,'!@#$,test1,Test,@1234"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Test"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,'2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,empty"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:Q10">
-      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:Q12">
-      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@,Test"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P14:Q14">
-      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@,'2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q2">
-      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4">
-      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:Q6">
-      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8:Q8">
-      <formula1>"Empty,'123456 ,'!@#$%^&amp;,test1,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10">
-      <formula1>"'25055512,'2,'25055512345,Empty,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">
-      <formula1>"'25055512,'2,'25055512345,Empty,Test"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14">
-      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
-      <formula1>"'25055512,'2,'25055512345,Empty,#$%@#&amp;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4">
-      <formula1>"'25055512,'2,'25055512345,Empty,#$%@#&amp;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6">
-      <formula1>"'25055512,'2,'25055512345,Empty"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8">
-      <formula1>"'25055512,'2,'25055512345,Empty,test1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test@"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,Test"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,'2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,empty"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8">
-      <formula1>"'1234563,'@#$^%&amp;&amp;,testval,DEMTESTIONG,test1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z10">
-      <formula1>"Empty,12032020"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z12">
-      <formula1>"Empty,12032020"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z14">
-      <formula1>"Empty,12032020"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2">
-      <formula1>"Empty,12032020"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4">
-      <formula1>"Empty,12032020,'@#$%^"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6">
-      <formula1>"Empty,12032020"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z8">
       <formula1>"Empty,12032020,test1,test@"</formula1>
     </dataValidation>
   </dataValidations>
